--- a/xlsx/美国陆军_intext.xlsx
+++ b/xlsx/美国陆军_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1077">
   <si>
     <t>美国陆军</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
-    <t>美國陸軍系列</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国陆军</t>
+    <t>美国陆军系列</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E9%83%A8</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%87%8E%E6%88%B0%E7%82%AE%E5%85%B5%E9%80%B2%E8%A1%8C%E6%9B%B2</t>
   </si>
   <si>
-    <t>美國野戰炮兵進行曲</t>
+    <t>美国野战炮兵进行曲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%98%E4%BA%89</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9B%BD%E8%81%94%E5%86%9B%E4%B9%8B%E5%BD%B9</t>
@@ -95,43 +95,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%88%B0</t>
   </si>
   <si>
-    <t>一戰</t>
+    <t>一战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%88%B0</t>
   </si>
   <si>
-    <t>韓戰</t>
+    <t>韩战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>越戰</t>
+    <t>越战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波灣戰爭</t>
+    <t>波湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>阿富汗戰爭</t>
+    <t>阿富汗战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
+    <t>伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E9%83%A8%E9%95%BF</t>
@@ -197,25 +197,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%B2%E5%A0%A1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>蓋茲堡戰役</t>
+    <t>盖兹堡战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%8C%B5%E6%B2%B3</t>
   </si>
   <si>
-    <t>萊茵河</t>
+    <t>莱茵河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>越南戰爭</t>
+    <t>越南战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Dak_To</t>
@@ -227,9 +224,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>美国独立战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86%E5%86%9B</t>
   </si>
   <si>
@@ -287,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E9%83%A8</t>
   </si>
   <si>
-    <t>美國戰爭部</t>
+    <t>美国战争部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E4%B8%BB%E4%B9%89</t>
@@ -323,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%88%AA%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍航空軍</t>
+    <t>美国陆军航空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
@@ -341,9 +335,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>越南战争</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Project_VOLAR</t>
   </si>
   <si>
@@ -371,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transformation_of_the_United_States_Army</t>
@@ -383,13 +374,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%8A%9B%C2%B7%E6%96%B0%E9%97%9C</t>
   </si>
   <si>
-    <t>艾力·新關</t>
+    <t>艾力·新关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E7%B4%9A%E6%88%B0%E9%AC%A5%E9%9A%8A</t>
   </si>
   <si>
-    <t>旅級戰鬥隊</t>
+    <t>旅级战斗队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Peter_Schoomaker</t>
@@ -425,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E9%98%B2%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國州防衛隊</t>
+    <t>美国州防卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -449,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%98</t>
   </si>
   <si>
-    <t>軍團</t>
+    <t>军团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E5%9B%A2%E5%86%9B</t>
@@ -461,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8E%E6%88%B0%E8%BB%8D</t>
   </si>
   <si>
-    <t>野戰軍</t>
+    <t>野战军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B0%86</t>
@@ -509,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>騎兵</t>
+    <t>骑兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98_(%E8%BB%8D%E9%9A%8A)</t>
   </si>
   <si>
-    <t>團 (軍隊)</t>
+    <t>团 (军队)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A5</t>
@@ -533,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%86%E5%B0%87</t>
   </si>
   <si>
-    <t>准將</t>
+    <t>准将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%A0%A1</t>
@@ -581,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AB%E5%AE%98%E9%95%B7</t>
   </si>
   <si>
-    <t>士官長</t>
+    <t>士官长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%84</t>
@@ -611,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D_(%E8%BB%8D%E9%9A%8A%E7%B7%A8%E5%88%B6)</t>
   </si>
   <si>
-    <t>伍 (軍隊編制)</t>
+    <t>伍 (军队编制)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%A3%AB</t>
@@ -623,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%B2%E5%BD%88%E5%85%B5</t>
   </si>
   <si>
-    <t>擲彈兵</t>
+    <t>掷弹兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E5%85%B5</t>
@@ -647,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%A8%AE%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>特種部隊</t>
+    <t>特种部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E5%85%B5</t>
@@ -677,13 +668,13 @@
     <t>https://zh.wikipedia.org/wiki/1947%E5%B9%B4%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1947年國家安全法案</t>
+    <t>1947年国家安全法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E6%98%9F%E4%B8%8A%E5%B0%87</t>
   </si>
   <si>
-    <t>四星上將</t>
+    <t>四星上将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E8%B0%8B%E9%95%BF%E8%81%94%E5%B8%AD%E4%BC%9A%E8%AE%AE</t>
@@ -749,13 +740,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9D%88%E9%A0%93</t>
   </si>
   <si>
-    <t>阿靈頓</t>
+    <t>阿灵顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E5%85%AB%E8%BB%8D%E5%9C%98</t>
   </si>
   <si>
-    <t>美國第八軍團</t>
+    <t>美国第八军团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD</t>
@@ -773,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E5%B1%B1%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>龍山基地</t>
+    <t>龙山基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC1%E9%A8%8E%E5%85%B5%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國陸軍第1騎兵師</t>
+    <t>美国陆军第1骑兵师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%BE%B7%E5%A0%A1</t>
@@ -833,13 +824,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC1%E6%AD%A5%E5%85%B5%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國陸軍第1步兵師</t>
+    <t>美国陆军第1步兵师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -851,37 +842,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%85%8B%E6%96%AF%E5%A0%A1</t>
   </si>
   <si>
-    <t>諾克斯堡</t>
+    <t>诺克斯堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC2%E6%AD%A5%E5%85%B5%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國陸軍第2步兵師</t>
+    <t>美国陆军第2步兵师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%94%BF%E5%BA%9C%E5%B8%82</t>
   </si>
   <si>
-    <t>議政府市</t>
+    <t>议政府市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E</t>
   </si>
   <si>
-    <t>華盛頓州</t>
+    <t>华盛顿州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%A0%A1</t>
@@ -893,37 +881,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC3%E6%AD%A5%E5%85%B5%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國陸軍第3步兵師</t>
+    <t>美国陆军第3步兵师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%AF%A7%E5%A0%A1</t>
   </si>
   <si>
-    <t>本寧堡</t>
+    <t>本宁堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC4%E6%AD%A5%E5%85%B5%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國陸軍第4步兵師</t>
+    <t>美国陆军第4步兵师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC10%E5%B1%B1%E5%9C%B0%E5%B8%AB</t>
   </si>
   <si>
-    <t>第10山地師</t>
+    <t>第10山地师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%E5%A7%86%E5%A0%A1</t>
@@ -941,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC25%E6%AD%A5%E5%85%B5%E5%B8%AB</t>
   </si>
   <si>
-    <t>第25步兵師</t>
+    <t>第25步兵师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
@@ -953,15 +938,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC82%E7%A9%BA%E9%99%8D%E5%B8%AB</t>
   </si>
   <si>
-    <t>第82空降師</t>
+    <t>第82空降师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅來納州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC101%E7%A9%BA%E4%B8%AD%E7%AA%81%E5%87%BB%E5%B8%88</t>
   </si>
   <si>
@@ -977,9 +959,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E5%A7%86%E9%9C%8D%E5%B0%94%E5%BE%B7%E5%B0%94</t>
   </si>
   <si>
@@ -1001,19 +980,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC173%E7%A9%BA%E9%99%8D%E6%97%85</t>
   </si>
   <si>
-    <t>美國陸軍第173空降旅</t>
+    <t>美国陆军第173空降旅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%90%B4%E5%AF%9F</t>
   </si>
   <si>
-    <t>維琴察</t>
+    <t>维琴察</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Caserma_Ederle</t>
@@ -1055,13 +1034,13 @@
     <t>https://zh.wikipedia.org/wiki/Mk_19%E8%87%AA%E5%8B%95%E6%A6%B4%E5%BD%88%E7%99%BC%E5%B0%84%E5%99%A8</t>
   </si>
   <si>
-    <t>Mk 19自動榴彈發射器</t>
+    <t>Mk 19自动榴弹发射器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M249%E7%8F%AD%E7%94%A8%E8%87%AA%E5%8B%95%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>M249班用自動武器</t>
+    <t>M249班用自动武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%BB%E6%97%A5%E7%BE%8E%E5%86%9B</t>
@@ -1073,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%99%B8%E4%B8%8A%E8%87%AA%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>日本陸上自衛隊</t>
+    <t>日本陆上自卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UH-60%E9%BB%91%E9%B9%B0%E7%9B%B4%E5%8D%87%E6%9C%BA</t>
@@ -1085,13 +1064,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%82%8D%E9%A6%AC_(%E8%BB%8D%E7%94%A8%E6%B1%BD%E8%BB%8A)</t>
   </si>
   <si>
-    <t>悍馬 (軍用汽車)</t>
+    <t>悍马 (军用汽车)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M1%E8%89%BE%E5%B8%83%E8%98%AD</t>
   </si>
   <si>
-    <t>M1艾布蘭</t>
+    <t>M1艾布兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC101%E7%A9%BA%E9%99%8D%E5%B8%88</t>
@@ -1103,13 +1082,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E4%B8%AD%E5%BF%83%E6%88%B0</t>
   </si>
   <si>
-    <t>網絡中心戰</t>
+    <t>网络中心战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
@@ -1139,19 +1118,19 @@
     <t>https://zh.wikipedia.org/wiki/M113%E8%A3%9D%E7%94%B2%E9%81%8B%E5%85%B5%E8%BB%8A</t>
   </si>
   <si>
-    <t>M113裝甲運兵車</t>
+    <t>M113装甲运兵车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%B4%94%E5%85%8B%E8%A3%9D%E7%94%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>史崔克裝甲車</t>
+    <t>史崔克装甲车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%9E%8B%E5%A2%9E%E7%A8%8B%E6%A9%9F%E5%8B%95%E6%88%B0%E8%A1%93%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>重型增程機動戰術卡車</t>
+    <t>重型增程机动战术卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AH-64%E9%98%BF%E5%B8%95%E5%A5%91</t>
@@ -1163,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/CH-47%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>CH-47直升機</t>
+    <t>CH-47直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MH-6</t>
@@ -1175,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/OH-58%E5%A5%87%E5%A5%A7%E7%93%A6%E5%81%B5%E5%AF%9F%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>OH-58奇奧瓦偵察直升機</t>
+    <t>OH-58奇奥瓦侦察直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M109%E8%87%AA%E8%B5%B0%E7%A0%B2</t>
@@ -1187,61 +1166,61 @@
     <t>https://zh.wikipedia.org/wiki/M270%E5%A4%9A%E7%AE%A1%E7%81%AB%E7%AE%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>M270多管火箭系統</t>
+    <t>M270多管火箭系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M777%E6%A6%B4%E5%BD%88%E7%A0%B2</t>
   </si>
   <si>
-    <t>M777榴彈砲</t>
+    <t>M777榴弹砲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BGM-71%E6%8B%96%E5%BC%8F%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>BGM-71拖式飛彈</t>
+    <t>BGM-71拖式飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FGM-148%E6%A8%99%E6%A7%8D%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>FGM-148標槍飛彈</t>
+    <t>FGM-148标枪飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%9C%97%E5%AF%A7M2%E9%87%8D%E6%A9%9F%E6%A7%8D</t>
   </si>
   <si>
-    <t>白朗寧M2重機槍</t>
+    <t>白朗宁M2重机枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M16%E7%AA%81%E6%93%8A%E6%AD%A5%E6%A7%8D</t>
   </si>
   <si>
-    <t>M16突擊步槍</t>
+    <t>M16突击步枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M4%E5%8D%A1%E8%B3%93%E6%A7%8D</t>
   </si>
   <si>
-    <t>M4卡賓槍</t>
+    <t>M4卡宾枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M240%E9%80%9A%E7%94%A8%E6%A9%9F%E6%A7%8D</t>
   </si>
   <si>
-    <t>M240通用機槍</t>
+    <t>M240通用机枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M203%E6%A6%B4%E5%BD%88%E7%99%BC%E5%B0%84%E5%99%A8</t>
   </si>
   <si>
-    <t>M203榴彈發射器</t>
+    <t>M203榴弹发射器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M24%E7%8B%99%E6%93%8A%E6%89%8B%E6%AD%A6%E5%99%A8%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>M24狙擊手武器系統</t>
+    <t>M24狙击手武器系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M14%E8%87%AA%E5%8A%A8%E6%AD%A5%E6%9E%AA</t>
@@ -1253,79 +1232,79 @@
     <t>https://zh.wikipedia.org/wiki/M21%E7%8B%99%E6%93%8A%E6%89%8B%E6%AD%A6%E5%99%A8%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>M21狙擊手武器系統</t>
+    <t>M21狙击手武器系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M25%E7%8B%99%E6%93%8A%E6%89%8B%E6%AD%A6%E5%99%A8%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>M25狙擊手武器系統</t>
+    <t>M25狙击手武器系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9B%B7%E7%89%B9M82%E7%8B%99%E6%93%8A%E6%AD%A5%E6%A7%8D</t>
   </si>
   <si>
-    <t>巴雷特M82狙擊步槍</t>
+    <t>巴雷特M82狙击步枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9B%B7%E7%89%B9XM109%E7%8B%99%E6%93%8A%E6%A6%B4%E5%BD%88%E7%99%BC%E5%B0%84%E5%99%A8</t>
   </si>
   <si>
-    <t>巴雷特XM109狙擊榴彈發射器</t>
+    <t>巴雷特XM109狙击榴弹发射器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%91%9E%E5%A1%94M9%E6%89%8B%E6%A7%8D</t>
   </si>
   <si>
-    <t>貝瑞塔M9手槍</t>
+    <t>贝瑞塔M9手枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SIG_P228%E6%89%8B%E6%A7%8D</t>
   </si>
   <si>
-    <t>SIG P228手槍</t>
+    <t>SIG P228手枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B0%E5%BD%88%E6%A7%8D</t>
   </si>
   <si>
-    <t>霰彈槍</t>
+    <t>霰弹枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%98%8E%E7%99%BB870%E6%B3%B5%E5%8B%95%E5%BC%8F%E9%9C%B0%E5%BD%88%E6%A7%8D</t>
   </si>
   <si>
-    <t>雷明登870泵動式霰彈槍</t>
+    <t>雷明登870泵动式霰弹枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E4%BC%AF%E6%A0%BC500%E6%B3%B5%E5%8B%95%E5%BC%8F%E9%9C%B0%E5%BD%88%E6%A7%8D</t>
   </si>
   <si>
-    <t>莫斯伯格500泵動式霰彈槍</t>
+    <t>莫斯伯格500泵动式霰弹枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%A5%88%E5%88%A9M4_Super_90%E5%8D%8A%E8%87%AA%E5%8B%95%E9%9C%B0%E5%BD%88%E6%A7%8D</t>
   </si>
   <si>
-    <t>伯奈利M4 Super 90半自動霰彈槍</t>
+    <t>伯奈利M4 Super 90半自动霰弹枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Masterkey%E6%A7%8D%E7%AE%A1%E4%B8%8B%E6%8E%9B%E5%BC%8F%E9%9C%B0%E5%BD%88%E6%A7%8D</t>
   </si>
   <si>
-    <t>Masterkey槍管下掛式霰彈槍</t>
+    <t>Masterkey枪管下挂式霰弹枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M26%E6%A8%A1%E7%B5%84%E9%85%8D%E4%BB%B6%E9%9C%B0%E5%BD%88%E6%A7%8D%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>M26模組配件霰彈槍系統</t>
+    <t>M26模组配件霰弹枪系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB%E7%84%A1%E5%BE%8C%E5%BA%A7%E5%8A%9B%E7%82%AE</t>
   </si>
   <si>
-    <t>卡爾·古斯塔夫無後座力炮</t>
+    <t>卡尔·古斯塔夫无后座力炮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AB%E5%87%BB%E7%82%AE</t>
@@ -1337,33 +1316,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國防部</t>
+    <t>美国国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%98%9F%E4%B8%8A%E5%B0%87</t>
   </si>
   <si>
-    <t>五星上將</t>
+    <t>五星上将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B0%87</t>
   </si>
   <si>
-    <t>上將</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B0%87</t>
   </si>
   <si>
-    <t>中將</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B0%87</t>
   </si>
   <si>
-    <t>少將</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B0%89</t>
   </si>
   <si>
@@ -1373,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84</t>
   </si>
   <si>
-    <t>北約</t>
+    <t>北约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%86%E5%B0%89</t>
@@ -1385,9 +1355,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%A3%AB%E9%95%B7</t>
   </si>
   <si>
-    <t>軍士長</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%AD%89%E5%85%B5</t>
   </si>
   <si>
@@ -1403,9 +1370,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
   </si>
   <si>
-    <t>美国军事</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%97%E8%AF%AD</t>
   </si>
   <si>
@@ -1415,13 +1379,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E6%8A%80%E8%83%BD%E7%AB%A0</t>
   </si>
   <si>
-    <t>美國陸軍技能章</t>
+    <t>美国陆军技能章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D_(%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2)</t>
   </si>
   <si>
-    <t>美國陸軍 (電子遊戲)</t>
+    <t>美国陆军 (电子游戏)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -1505,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%A8%93%E7%B7%B4%E5%8F%8A%E6%88%B0%E7%95%A5%E6%80%9D%E6%83%B3%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美國陸軍訓練及戰略思想司令部</t>
+    <t>美国陆军训练及战略思想司令部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Army_Materiel_Command</t>
@@ -1589,7 +1553,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E5%B7%A5%E5%85%B5%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國陸軍工兵部隊</t>
+    <t>美国陆军工兵部队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Army_Military_District_of_Washington</t>
@@ -1763,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%BB%8D%E6%A2%B0%E5%85%B5</t>
   </si>
   <si>
-    <t>美國陸軍軍械兵</t>
+    <t>美国陆军军械兵</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Psychological_Operations_(United_States)</t>
@@ -1787,7 +1751,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%89%B9%E7%A8%AE%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國陸軍特種部隊</t>
+    <t>美国陆军特种部队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transportation_Corps</t>
@@ -1895,9 +1859,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E6%8A%80%E8%83%BD%E7%AB%A0</t>
   </si>
   <si>
-    <t>美国陆军技能章</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/United_States_Army_branch_insignia</t>
   </si>
   <si>
@@ -1907,7 +1868,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%BB%8D%E5%AE%98%E8%BB%8D%E9%8A%9C</t>
   </si>
   <si>
-    <t>美國陸軍軍官軍銜</t>
+    <t>美国陆军军官军衔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Warrant_officer_(United_States)</t>
@@ -1931,7 +1892,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8B%E7%AB%A0</t>
   </si>
   <si>
-    <t>紋章</t>
+    <t>纹章</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Coats_of_arms_of_U.S._Air_Defense_Artillery_Regiments</t>
@@ -2033,7 +1994,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E9%81%8A%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>美國陸軍遊騎兵</t>
+    <t>美国陆军游骑兵</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/U.S._Army_Regimental_System</t>
@@ -2069,9 +2030,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>美利堅合眾國軍</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
@@ -2093,7 +2051,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AC%80%E9%95%B7%E8%81%AF%E5%B8%AD%E6%9C%83%E8%AD%B0%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>美國參謀長聯席會議主席</t>
+    <t>美国参谋长联席会议主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8E%B0%E5%BD%B9%E4%B8%8A%E5%B0%86%E5%88%97%E8%A1%A8</t>
@@ -2117,15 +2075,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E9%9A%8A%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國軍隊結構</t>
+    <t>美国军队结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美国国防部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%83%A8</t>
   </si>
   <si>
@@ -2135,7 +2090,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E9%83%A8</t>
   </si>
   <si>
-    <t>美國空軍部</t>
+    <t>美国空军部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
@@ -2201,7 +2156,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美國太平洋司令部</t>
+    <t>美国太平洋司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%97%E6%96%B9%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
@@ -2243,7 +2198,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8%E7%AC%AC10%E5%8D%B7</t>
   </si>
   <si>
-    <t>美國法典第10卷</t>
+    <t>美国法典第10卷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F%E5%86%9B%E4%BA%8B%E5%8D%95%E4%BD%8D%E4%B8%8E%E7%BC%96%E5%88%B6</t>
@@ -2255,7 +2210,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E5%A4%96%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐外美軍</t>
+    <t>驻外美军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Military_Entrance_Processing_Command</t>
@@ -2273,7 +2228,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B5%E8%A8%93%E7%B7%B4</t>
   </si>
   <si>
-    <t>新兵訓練</t>
+    <t>新兵训练</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Marine_Corps_Recruit_Training</t>
@@ -2405,7 +2360,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國退伍軍人事務部</t>
+    <t>美国退伍军人事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E7%BC%BA%E4%BA%BA%E6%89%8D%E5%BE%81%E5%85%B5%E8%AE%A1%E5%88%92</t>
@@ -2435,7 +2390,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -2459,7 +2414,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
@@ -2477,9 +2432,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
   </si>
   <si>
-    <t>冷战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
   </si>
   <si>
@@ -2489,7 +2441,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -2501,7 +2453,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -2525,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -2561,7 +2513,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -2591,7 +2543,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
@@ -2615,7 +2567,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -2657,13 +2609,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -2675,13 +2627,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -2699,9 +2651,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
@@ -2711,7 +2660,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -2753,7 +2702,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -2765,7 +2714,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -2801,7 +2750,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -2813,13 +2762,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -2831,13 +2780,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -2849,13 +2798,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -2903,7 +2852,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -2915,13 +2864,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -2933,7 +2882,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -2945,7 +2894,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -2957,13 +2906,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -2987,7 +2936,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -3059,15 +3008,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -3077,7 +3023,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -3131,7 +3077,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -3167,7 +3113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -3185,7 +3131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -3221,19 +3167,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -3245,7 +3191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -3263,7 +3209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3281,7 +3227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3293,7 +3239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4569,7 +4515,7 @@
         <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -4595,10 +4541,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -4624,10 +4570,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -4653,10 +4599,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -4682,10 +4628,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -4711,10 +4657,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -4740,10 +4686,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -4769,10 +4715,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -4798,10 +4744,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -4827,10 +4773,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4856,10 +4802,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4885,10 +4831,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -4914,10 +4860,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -4943,10 +4889,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4972,10 +4918,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -5001,10 +4947,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -5030,10 +4976,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -5059,10 +5005,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -5088,10 +5034,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -5117,10 +5063,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -5146,10 +5092,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -5175,10 +5121,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -5204,10 +5150,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -5233,10 +5179,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -5262,10 +5208,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -5291,10 +5237,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -5320,10 +5266,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -5349,10 +5295,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5378,10 +5324,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -5407,10 +5353,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5465,10 +5411,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5494,10 +5440,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -5523,10 +5469,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5552,10 +5498,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5581,10 +5527,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5610,10 +5556,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -5639,10 +5585,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -5668,10 +5614,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -5697,10 +5643,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G71" t="n">
         <v>6</v>
@@ -5726,10 +5672,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5755,10 +5701,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5784,10 +5730,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -5813,10 +5759,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5842,10 +5788,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5871,10 +5817,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G77" t="n">
         <v>10</v>
@@ -5900,10 +5846,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G78" t="n">
         <v>230</v>
@@ -5929,10 +5875,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G79" t="n">
         <v>12</v>
@@ -5958,10 +5904,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G80" t="n">
         <v>40</v>
@@ -5987,10 +5933,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
@@ -6016,10 +5962,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G82" t="n">
         <v>15</v>
@@ -6045,10 +5991,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
         <v>8</v>
@@ -6074,10 +6020,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -6103,10 +6049,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G85" t="n">
         <v>7</v>
@@ -6132,10 +6078,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>37</v>
@@ -6161,10 +6107,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -6190,10 +6136,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6219,10 +6165,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -6248,10 +6194,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -6277,10 +6223,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>20</v>
@@ -6306,10 +6252,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>6</v>
@@ -6335,10 +6281,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>10</v>
@@ -6364,10 +6310,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -6393,10 +6339,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -6422,10 +6368,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>7</v>
@@ -6451,10 +6397,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>23</v>
@@ -6480,10 +6426,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -6509,10 +6455,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>11</v>
@@ -6538,10 +6484,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -6567,10 +6513,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G101" t="n">
         <v>5</v>
@@ -6596,10 +6542,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -6625,10 +6571,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6654,10 +6600,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G104" t="n">
         <v>31</v>
@@ -6683,10 +6629,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G105" t="n">
         <v>5</v>
@@ -6712,10 +6658,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6741,10 +6687,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6770,10 +6716,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -6799,10 +6745,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -6828,10 +6774,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6857,10 +6803,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6886,10 +6832,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6944,10 +6890,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -6973,10 +6919,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -7002,10 +6948,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7031,10 +6977,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>6</v>
@@ -7060,10 +7006,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -7089,10 +7035,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -7118,10 +7064,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7147,10 +7093,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7176,10 +7122,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -7205,10 +7151,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7234,10 +7180,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7263,10 +7209,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
@@ -7292,10 +7238,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7321,10 +7267,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7350,10 +7296,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -7379,10 +7325,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7408,10 +7354,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7437,10 +7383,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -7466,10 +7412,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -7495,10 +7441,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7524,10 +7470,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7553,10 +7499,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7582,10 +7528,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>5</v>
@@ -7611,10 +7557,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -7640,10 +7586,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7669,10 +7615,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -7698,10 +7644,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -7727,10 +7673,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7756,10 +7702,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7785,10 +7731,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -7814,10 +7760,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7843,10 +7789,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -7872,10 +7818,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7901,10 +7847,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7930,10 +7876,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7959,10 +7905,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7988,10 +7934,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8017,10 +7963,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8046,10 +7992,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -8075,10 +8021,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8104,10 +8050,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8133,10 +8079,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8162,10 +8108,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8191,10 +8137,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -8220,10 +8166,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8249,10 +8195,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8278,10 +8224,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -8307,10 +8253,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8336,10 +8282,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8365,10 +8311,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8394,10 +8340,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8423,10 +8369,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>253</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -8452,10 +8398,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8481,10 +8427,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8510,10 +8456,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8539,10 +8485,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8568,10 +8514,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8597,10 +8543,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8626,10 +8572,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8655,10 +8601,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -8684,10 +8630,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8713,10 +8659,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8742,10 +8688,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -8771,10 +8717,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8800,10 +8746,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8829,10 +8775,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8858,10 +8804,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8887,10 +8833,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8916,10 +8862,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8945,10 +8891,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8974,10 +8920,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9003,10 +8949,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9032,10 +8978,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9061,10 +9007,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9090,10 +9036,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -9119,10 +9065,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9148,10 +9094,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9177,10 +9123,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F191" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9206,10 +9152,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9235,10 +9181,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9264,10 +9210,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9293,10 +9239,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9322,10 +9268,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F196" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -9351,10 +9297,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9380,10 +9326,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9409,10 +9355,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F199" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9438,10 +9384,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9467,10 +9413,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9496,10 +9442,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9525,10 +9471,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9554,10 +9500,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9583,10 +9529,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9612,10 +9558,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9641,10 +9587,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9670,10 +9616,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9699,10 +9645,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9728,10 +9674,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9757,10 +9703,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F211" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9786,10 +9732,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9815,10 +9761,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9844,10 +9790,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9873,10 +9819,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9902,10 +9848,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9931,10 +9877,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9960,10 +9906,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9989,10 +9935,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10018,10 +9964,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10047,10 +9993,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10076,10 +10022,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G222" t="n">
         <v>6</v>
@@ -10105,10 +10051,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10134,10 +10080,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10163,10 +10109,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F225" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10192,10 +10138,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10221,10 +10167,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10250,10 +10196,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10279,10 +10225,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10308,10 +10254,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -10337,13 +10283,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -10366,10 +10312,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>147</v>
       </c>
       <c r="G232" t="n">
         <v>3</v>
@@ -10395,10 +10341,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>155</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10424,10 +10370,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>159</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10453,10 +10399,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F235" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10482,10 +10428,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -10511,10 +10457,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -10540,10 +10486,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10569,10 +10515,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F239" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10598,10 +10544,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F240" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10627,10 +10573,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F241" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10656,10 +10602,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F242" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10685,10 +10631,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F243" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10714,10 +10660,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F244" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10743,10 +10689,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F245" t="s">
-        <v>456</v>
+        <v>177</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10772,10 +10718,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F246" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10801,10 +10747,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F247" t="s">
-        <v>456</v>
+        <v>177</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10830,10 +10776,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F248" t="s">
-        <v>456</v>
+        <v>177</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10859,10 +10805,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F249" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10888,10 +10834,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F250" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10917,10 +10863,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F251" t="s">
-        <v>462</v>
+        <v>357</v>
       </c>
       <c r="G251" t="n">
         <v>4</v>
@@ -10946,10 +10892,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F252" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10975,10 +10921,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F253" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11004,10 +10950,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F254" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11033,10 +10979,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F255" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11062,10 +11008,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F256" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11091,10 +11037,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F257" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G257" t="n">
         <v>5</v>
@@ -11120,10 +11066,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F258" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11178,10 +11124,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F260" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11207,10 +11153,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F261" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11236,10 +11182,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F262" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -11265,10 +11211,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F263" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -11294,10 +11240,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F264" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -11323,10 +11269,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F265" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11352,10 +11298,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F266" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -11381,10 +11327,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F267" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11410,10 +11356,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F268" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G268" t="n">
         <v>14</v>
@@ -11468,10 +11414,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F270" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11497,10 +11443,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F271" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11526,10 +11472,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F272" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11555,10 +11501,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F273" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11584,10 +11530,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F274" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -11613,10 +11559,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F275" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11642,10 +11588,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F276" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11671,10 +11617,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F277" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11700,10 +11646,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F278" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11729,10 +11675,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F279" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11758,10 +11704,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F280" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11787,10 +11733,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F281" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11816,10 +11762,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F282" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11845,10 +11791,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F283" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11874,10 +11820,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F284" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11903,10 +11849,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F285" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11932,10 +11878,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F286" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11961,10 +11907,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F287" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11990,10 +11936,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F288" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12019,10 +11965,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F289" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -12048,10 +11994,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F290" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12077,10 +12023,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F291" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12106,10 +12052,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F292" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12135,10 +12081,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F293" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12164,10 +12110,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F294" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12193,10 +12139,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F295" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12222,10 +12168,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F296" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G296" t="n">
         <v>62</v>
@@ -12251,10 +12197,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F297" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12280,10 +12226,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F298" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12309,10 +12255,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F299" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12338,10 +12284,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F300" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12367,10 +12313,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F301" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12396,10 +12342,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F302" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12425,10 +12371,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F303" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12454,10 +12400,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F304" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12483,10 +12429,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F305" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12512,10 +12458,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F306" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12541,10 +12487,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F307" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12570,10 +12516,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F308" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12599,10 +12545,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F309" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12628,10 +12574,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="F310" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12657,10 +12603,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F311" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12686,10 +12632,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F312" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12715,10 +12661,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F313" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12744,10 +12690,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="F314" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12773,10 +12719,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F315" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12802,10 +12748,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F316" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12831,10 +12777,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F317" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12860,10 +12806,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F318" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12889,10 +12835,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F319" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12918,10 +12864,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F320" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12947,10 +12893,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F321" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12976,10 +12922,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F322" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13005,10 +12951,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="F323" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13034,10 +12980,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F324" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -13063,10 +13009,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F325" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="G325" t="n">
         <v>5</v>
@@ -13092,10 +13038,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F326" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13121,10 +13067,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="F327" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13150,10 +13096,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F328" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13179,10 +13125,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F329" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13208,10 +13154,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="F330" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13237,10 +13183,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F331" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13266,10 +13212,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F332" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -13295,10 +13241,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F333" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13324,10 +13270,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F334" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="G334" t="n">
         <v>3</v>
@@ -13353,10 +13299,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="F335" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13382,10 +13328,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F336" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13411,10 +13357,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F337" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13440,10 +13386,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F338" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13469,10 +13415,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F339" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13498,10 +13444,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F340" t="s">
-        <v>626</v>
+        <v>454</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -13527,10 +13473,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="F341" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13556,10 +13502,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="F342" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="G342" t="n">
         <v>17</v>
@@ -13585,10 +13531,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="F343" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13614,10 +13560,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="F344" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13643,10 +13589,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="F345" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13672,10 +13618,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="F346" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -13701,10 +13647,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="F347" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13730,10 +13676,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="F348" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13759,10 +13705,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="F349" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13788,10 +13734,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="F350" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13817,10 +13763,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="F351" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13846,10 +13792,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="F352" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13875,10 +13821,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="F353" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13904,10 +13850,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="F354" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13933,10 +13879,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F355" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G355" t="n">
         <v>3</v>
@@ -13962,10 +13908,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F356" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13991,10 +13937,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="F357" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14020,10 +13966,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F358" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -14049,10 +13995,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="F359" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14078,10 +14024,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F360" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14136,10 +14082,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="F362" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14165,10 +14111,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="F363" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14194,10 +14140,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F364" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14223,10 +14169,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F365" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14252,10 +14198,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="F366" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14281,10 +14227,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="F367" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14310,10 +14256,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F368" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14339,10 +14285,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="F369" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14368,10 +14314,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F370" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14397,10 +14343,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="F371" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14426,10 +14372,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="F372" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14455,10 +14401,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="F373" t="s">
-        <v>684</v>
+        <v>48</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14484,10 +14430,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="F374" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14513,10 +14459,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="F375" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14542,10 +14488,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="F376" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14571,10 +14517,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="F377" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14600,10 +14546,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="F378" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14629,10 +14575,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="F379" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14658,10 +14604,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F380" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14687,10 +14633,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="F381" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14716,10 +14662,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="F382" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14745,10 +14691,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="F383" t="s">
-        <v>702</v>
+        <v>433</v>
       </c>
       <c r="G383" t="n">
         <v>7</v>
@@ -14774,10 +14720,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="F384" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="G384" t="n">
         <v>16</v>
@@ -14832,10 +14778,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="F386" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="G386" t="n">
         <v>3</v>
@@ -14861,10 +14807,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="F387" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -14890,10 +14836,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="F388" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14919,10 +14865,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F389" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G389" t="n">
         <v>6</v>
@@ -14948,10 +14894,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F390" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G390" t="n">
         <v>4</v>
@@ -14977,10 +14923,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="F391" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="G391" t="n">
         <v>40</v>
@@ -15006,10 +14952,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F392" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G392" t="n">
         <v>13</v>
@@ -15035,10 +14981,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="F393" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15064,10 +15010,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F394" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G394" t="n">
         <v>12</v>
@@ -15093,10 +15039,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="F395" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15122,10 +15068,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="F396" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="G396" t="n">
         <v>144</v>
@@ -15151,10 +15097,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="F397" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="G397" t="n">
         <v>64</v>
@@ -15180,10 +15126,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="F398" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15209,10 +15155,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="F399" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -15238,10 +15184,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="F400" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="G400" t="n">
         <v>4</v>
@@ -15267,10 +15213,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="F401" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="G401" t="n">
         <v>2</v>
@@ -15296,10 +15242,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="F402" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -15325,10 +15271,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="F403" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="G403" t="n">
         <v>3</v>
@@ -15354,10 +15300,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="F404" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="G404" t="n">
         <v>3</v>
@@ -15383,10 +15329,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="F405" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15412,10 +15358,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="F406" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -15441,10 +15387,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="F407" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="G407" t="n">
         <v>4</v>
@@ -15470,10 +15416,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="F408" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15499,10 +15445,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="F409" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15528,10 +15474,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="F410" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="G410" t="n">
         <v>20</v>
@@ -15557,10 +15503,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="F411" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15586,10 +15532,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F412" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15615,10 +15561,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="F413" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15644,10 +15590,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="F414" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15673,10 +15619,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="F415" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15702,10 +15648,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="F416" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15731,10 +15677,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="F417" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15760,10 +15706,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="F418" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15789,10 +15735,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="F419" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15818,10 +15764,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="F420" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15847,10 +15793,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="F421" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="G421" t="n">
         <v>74</v>
@@ -15876,10 +15822,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="F422" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15905,10 +15851,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="F423" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15934,10 +15880,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="F424" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="G424" t="n">
         <v>18</v>
@@ -15963,10 +15909,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="F425" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15992,10 +15938,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="F426" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16021,10 +15967,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="F427" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16050,10 +15996,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="F428" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -16079,10 +16025,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F429" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16108,10 +16054,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="F430" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16137,10 +16083,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="F431" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16166,10 +16112,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="F432" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16195,10 +16141,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="F433" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16224,10 +16170,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="F434" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16253,10 +16199,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="F435" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16282,10 +16228,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="F436" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16311,10 +16257,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="F437" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16340,10 +16286,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="F438" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16369,10 +16315,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="F439" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16398,10 +16344,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="F440" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16427,10 +16373,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="F441" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="G441" t="n">
         <v>10</v>
@@ -16456,10 +16402,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="F442" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16485,10 +16431,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="F443" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16514,10 +16460,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="F444" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16543,10 +16489,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="F445" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16572,10 +16518,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="F446" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16601,10 +16547,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="F447" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16630,10 +16576,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="F448" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16659,10 +16605,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="F449" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16688,10 +16634,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="F450" t="s">
-        <v>820</v>
+        <v>115</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16717,10 +16663,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="F451" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16746,10 +16692,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F452" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16775,10 +16721,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="F453" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16804,10 +16750,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="F454" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16833,10 +16779,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="F455" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="G455" t="n">
         <v>2</v>
@@ -16862,10 +16808,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="F456" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="G456" t="n">
         <v>2</v>
@@ -16891,10 +16837,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="F457" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16920,10 +16866,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F458" t="s">
-        <v>462</v>
+        <v>357</v>
       </c>
       <c r="G458" t="n">
         <v>22</v>
@@ -16949,10 +16895,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="F459" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16978,10 +16924,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="F460" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17007,10 +16953,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="F461" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="G461" t="n">
         <v>7</v>
@@ -17036,10 +16982,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="F462" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="G462" t="n">
         <v>2</v>
@@ -17065,10 +17011,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="F463" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17094,10 +17040,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="F464" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17123,10 +17069,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="F465" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17152,10 +17098,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="F466" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17181,10 +17127,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F467" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -17210,10 +17156,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="F468" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="G468" t="n">
         <v>3</v>
@@ -17239,10 +17185,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="F469" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="G469" t="n">
         <v>4</v>
@@ -17268,10 +17214,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="F470" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17297,10 +17243,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="F471" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17326,10 +17272,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="F472" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="G472" t="n">
         <v>3</v>
@@ -17355,10 +17301,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="F473" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17384,10 +17330,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="F474" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17413,10 +17359,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="F475" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17442,10 +17388,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="F476" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17471,10 +17417,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="F477" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17500,10 +17446,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="F478" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17529,10 +17475,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="F479" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17558,10 +17504,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="F480" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17587,10 +17533,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="F481" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17616,10 +17562,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="F482" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17645,10 +17591,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="F483" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="G483" t="n">
         <v>7</v>
@@ -17674,10 +17620,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="F484" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17703,10 +17649,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="F485" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17732,10 +17678,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="F486" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17761,10 +17707,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="F487" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17790,10 +17736,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="F488" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17819,10 +17765,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="F489" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17848,10 +17794,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="F490" t="s">
-        <v>894</v>
+        <v>54</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17877,10 +17823,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="F491" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="G491" t="n">
         <v>4</v>
@@ -17906,10 +17852,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="F492" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
       <c r="G492" t="n">
         <v>2</v>
@@ -17935,10 +17881,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="F493" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17964,10 +17910,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="F494" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17993,10 +17939,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="F495" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18022,10 +17968,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
       <c r="F496" t="s">
-        <v>906</v>
+        <v>889</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18051,10 +17997,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="F497" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18080,10 +18026,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="F498" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18109,10 +18055,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="F499" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18138,10 +18084,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="F500" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18167,10 +18113,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="F501" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18196,10 +18142,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="F502" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18225,10 +18171,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="F503" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18254,10 +18200,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
       <c r="F504" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="G504" t="n">
         <v>3</v>
@@ -18283,10 +18229,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="F505" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18312,10 +18258,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="F506" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18341,10 +18287,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="F507" t="s">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18370,10 +18316,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="F508" t="s">
-        <v>930</v>
+        <v>913</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18399,10 +18345,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="F509" t="s">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="G509" t="n">
         <v>2</v>
@@ -18428,10 +18374,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
       <c r="F510" t="s">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18457,10 +18403,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="F511" t="s">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18486,10 +18432,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="F512" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18515,10 +18461,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="F513" t="s">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18544,10 +18490,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="F514" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18573,10 +18519,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="F515" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18602,10 +18548,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="F516" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18631,10 +18577,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
       <c r="F517" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18660,10 +18606,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="F518" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18689,10 +18635,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="F519" t="s">
-        <v>952</v>
+        <v>935</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18718,10 +18664,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
       <c r="F520" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18747,10 +18693,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="F521" t="s">
-        <v>956</v>
+        <v>939</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18776,10 +18722,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
       <c r="F522" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
       <c r="G522" t="n">
         <v>2</v>
@@ -18805,10 +18751,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="F523" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18834,10 +18780,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="F524" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18863,10 +18809,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
       <c r="F525" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18892,10 +18838,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="F526" t="s">
-        <v>966</v>
+        <v>949</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18921,10 +18867,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="F527" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18950,10 +18896,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="F528" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18979,10 +18925,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="F529" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19008,10 +18954,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="F530" t="s">
-        <v>974</v>
+        <v>957</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19037,10 +18983,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>975</v>
+        <v>958</v>
       </c>
       <c r="F531" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19066,10 +19012,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="F532" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19095,10 +19041,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="F533" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19124,10 +19070,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="F534" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19153,10 +19099,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="F535" t="s">
-        <v>984</v>
+        <v>967</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19182,10 +19128,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>985</v>
+        <v>968</v>
       </c>
       <c r="F536" t="s">
-        <v>986</v>
+        <v>969</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19211,10 +19157,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
       <c r="F537" t="s">
-        <v>988</v>
+        <v>971</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19240,10 +19186,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
       <c r="F538" t="s">
-        <v>990</v>
+        <v>973</v>
       </c>
       <c r="G538" t="n">
         <v>3</v>
@@ -19269,10 +19215,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>991</v>
+        <v>974</v>
       </c>
       <c r="F539" t="s">
-        <v>992</v>
+        <v>975</v>
       </c>
       <c r="G539" t="n">
         <v>2</v>
@@ -19298,10 +19244,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="F540" t="s">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="G540" t="n">
         <v>2</v>
@@ -19327,10 +19273,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>995</v>
+        <v>978</v>
       </c>
       <c r="F541" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19356,10 +19302,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="F542" t="s">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19385,10 +19331,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>999</v>
+        <v>982</v>
       </c>
       <c r="F543" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19414,10 +19360,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="F544" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19443,10 +19389,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="F545" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19472,10 +19418,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="F546" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="G546" t="n">
         <v>6</v>
@@ -19501,10 +19447,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="F547" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="G547" t="n">
         <v>4</v>
@@ -19530,10 +19476,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="F548" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19559,10 +19505,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="F549" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19588,10 +19534,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="F550" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19617,10 +19563,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="F551" t="s">
-        <v>1016</v>
+        <v>945</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19646,10 +19592,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="F552" t="s">
-        <v>1018</v>
+        <v>1000</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19675,10 +19621,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="F553" t="s">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19704,10 +19650,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
       <c r="F554" t="s">
-        <v>1022</v>
+        <v>1004</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19733,10 +19679,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="F555" t="s">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19762,10 +19708,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="F556" t="s">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="G556" t="n">
         <v>2</v>
@@ -19791,10 +19737,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1027</v>
+        <v>1009</v>
       </c>
       <c r="F557" t="s">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19820,10 +19766,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1029</v>
+        <v>1011</v>
       </c>
       <c r="F558" t="s">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19849,10 +19795,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1031</v>
+        <v>1013</v>
       </c>
       <c r="F559" t="s">
-        <v>1032</v>
+        <v>1014</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19878,10 +19824,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="F560" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19907,10 +19853,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="F561" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -19936,10 +19882,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="F562" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19965,10 +19911,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="F563" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -19994,10 +19940,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1041</v>
+        <v>1023</v>
       </c>
       <c r="F564" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
       <c r="G564" t="n">
         <v>4</v>
@@ -20023,10 +19969,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="F565" t="s">
-        <v>1044</v>
+        <v>1026</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20052,10 +19998,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1045</v>
+        <v>1027</v>
       </c>
       <c r="F566" t="s">
-        <v>1046</v>
+        <v>1028</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20081,10 +20027,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="F567" t="s">
-        <v>1048</v>
+        <v>1030</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20110,10 +20056,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="F568" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20139,10 +20085,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="F569" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20168,10 +20114,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1053</v>
+        <v>1035</v>
       </c>
       <c r="F570" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20197,10 +20143,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="F571" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20226,10 +20172,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="F572" t="s">
-        <v>1058</v>
+        <v>1040</v>
       </c>
       <c r="G572" t="n">
         <v>2</v>
@@ -20255,10 +20201,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="F573" t="s">
-        <v>1060</v>
+        <v>1042</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20284,10 +20230,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="F574" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20313,10 +20259,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1063</v>
+        <v>1045</v>
       </c>
       <c r="F575" t="s">
-        <v>1064</v>
+        <v>1046</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20342,10 +20288,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1065</v>
+        <v>1047</v>
       </c>
       <c r="F576" t="s">
-        <v>1066</v>
+        <v>1048</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20371,10 +20317,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1067</v>
+        <v>1049</v>
       </c>
       <c r="F577" t="s">
-        <v>1068</v>
+        <v>1050</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20400,10 +20346,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1069</v>
+        <v>1051</v>
       </c>
       <c r="F578" t="s">
-        <v>1070</v>
+        <v>1052</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20429,10 +20375,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1071</v>
+        <v>1053</v>
       </c>
       <c r="F579" t="s">
-        <v>1072</v>
+        <v>1054</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20458,10 +20404,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1073</v>
+        <v>1055</v>
       </c>
       <c r="F580" t="s">
-        <v>1074</v>
+        <v>1056</v>
       </c>
       <c r="G580" t="n">
         <v>2</v>
@@ -20487,10 +20433,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1075</v>
+        <v>1057</v>
       </c>
       <c r="F581" t="s">
-        <v>1076</v>
+        <v>1058</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20516,10 +20462,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1077</v>
+        <v>1059</v>
       </c>
       <c r="F582" t="s">
-        <v>1078</v>
+        <v>1060</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20545,10 +20491,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1079</v>
+        <v>1061</v>
       </c>
       <c r="F583" t="s">
-        <v>1080</v>
+        <v>1062</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20574,10 +20520,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1081</v>
+        <v>1063</v>
       </c>
       <c r="F584" t="s">
-        <v>1082</v>
+        <v>1064</v>
       </c>
       <c r="G584" t="n">
         <v>3</v>
@@ -20603,10 +20549,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1083</v>
+        <v>1065</v>
       </c>
       <c r="F585" t="s">
-        <v>1084</v>
+        <v>1066</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20632,10 +20578,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1085</v>
+        <v>1067</v>
       </c>
       <c r="F586" t="s">
-        <v>1086</v>
+        <v>1068</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20661,10 +20607,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1087</v>
+        <v>1069</v>
       </c>
       <c r="F587" t="s">
-        <v>1088</v>
+        <v>1070</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20690,10 +20636,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1089</v>
+        <v>1071</v>
       </c>
       <c r="F588" t="s">
-        <v>1090</v>
+        <v>1072</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20719,10 +20665,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1091</v>
+        <v>1073</v>
       </c>
       <c r="F589" t="s">
-        <v>1092</v>
+        <v>1074</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -20748,10 +20694,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1093</v>
+        <v>1075</v>
       </c>
       <c r="F590" t="s">
-        <v>1094</v>
+        <v>1076</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
